--- a/ApplicationTestData/ApplicationTestData.xlsx
+++ b/ApplicationTestData/ApplicationTestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14140" windowHeight="5620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
